--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/121.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/121.xlsx
@@ -479,13 +479,13 @@
         <v>0.003221634963161725</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.295855966813364</v>
+        <v>-1.28477858194764</v>
       </c>
       <c r="F2" t="n">
-        <v>0.130424131848798</v>
+        <v>0.1134116514935299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09245412119662641</v>
+        <v>0.09298119855744445</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0297555791377873</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.27340334727137</v>
+        <v>-1.282579749522732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03728036388927759</v>
+        <v>0.02726005384137118</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1243503317906178</v>
+        <v>0.1219908940757094</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.04631655060379082</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.283149168278186</v>
+        <v>-1.298095680584818</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03384441881124877</v>
+        <v>-0.02360072140543334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1004639450233515</v>
+        <v>0.07869462798790283</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04129077257385391</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.332878406254536</v>
+        <v>-1.371906951772617</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.04066722354006512</v>
+        <v>-0.04337269265251894</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1128115717281664</v>
+        <v>0.1117355162851667</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01175679660895484</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.372304084853344</v>
+        <v>-1.427054428214329</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02124858393097943</v>
+        <v>-0.01898842948625276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1135561962545298</v>
+        <v>0.1111894582991668</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.03958152913960152</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.223544165014929</v>
+        <v>-1.224864048489111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1048674500655322</v>
+        <v>0.1392618029430684</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05192026609681911</v>
+        <v>0.04656626974745691</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1019337778343784</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9164507900060118</v>
+        <v>-0.9126940862681037</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2106508543480492</v>
+        <v>0.2209106122828647</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0119222486463753</v>
+        <v>0.00884008712646704</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1514361660247993</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5222144446912086</v>
+        <v>-0.5351709114499323</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2832473655242115</v>
+        <v>0.3130980487428399</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05654378648060631</v>
+        <v>-0.0659742370997856</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.149232476226606</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.08030606916014539</v>
+        <v>-0.1216108296519525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2815960511333938</v>
+        <v>0.3135871648532943</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04411731717888238</v>
+        <v>-0.04950197453815366</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06203551441292374</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6094425497064876</v>
+        <v>0.5486578275857766</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1132919275500754</v>
+        <v>0.1596557546768811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0961037895037775</v>
+        <v>-0.1151690974748633</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1303984453137032</v>
       </c>
       <c r="E12" t="n">
-        <v>1.397436344562276</v>
+        <v>1.334918545357656</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2239105591895614</v>
+        <v>-0.1863873232532078</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005273189640377089</v>
+        <v>0.002047943407559774</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4204939265526426</v>
       </c>
       <c r="E13" t="n">
-        <v>2.084094041620455</v>
+        <v>1.971901026218849</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.683352652244347</v>
+        <v>-0.6383787909000864</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1340815523165243</v>
+        <v>0.1333486081748882</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7772915627147049</v>
       </c>
       <c r="E14" t="n">
-        <v>2.803173566585353</v>
+        <v>2.671648054412025</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.268380781838645</v>
+        <v>-1.284454451271458</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2303264624211348</v>
+        <v>0.1945888652999626</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.171882175958904</v>
       </c>
       <c r="E15" t="n">
-        <v>3.494501957486349</v>
+        <v>3.353700759791478</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.84907475867508</v>
+        <v>-1.862102037766212</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3974873683492718</v>
+        <v>0.3756508891016413</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.575941312886932</v>
       </c>
       <c r="E16" t="n">
-        <v>4.096408243011552</v>
+        <v>3.955684427865498</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.516385358480627</v>
+        <v>-2.524768954618625</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6060523180393976</v>
+        <v>0.6074393637257609</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.966086546399776</v>
       </c>
       <c r="E17" t="n">
-        <v>4.680420179134576</v>
+        <v>4.543149377723522</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.148291982153776</v>
+        <v>-3.122376858564192</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8125994812678876</v>
+        <v>0.8018637476554359</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.320738760432053</v>
       </c>
       <c r="E18" t="n">
-        <v>5.244163727659607</v>
+        <v>5.100021939932736</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.835947622082092</v>
+        <v>-3.782874143953515</v>
       </c>
       <c r="G18" t="n">
-        <v>1.067566219335183</v>
+        <v>1.079252444254816</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.617186256838165</v>
       </c>
       <c r="E19" t="n">
-        <v>5.763523274269104</v>
+        <v>5.606254194156874</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.446583535142836</v>
+        <v>-4.378683268651082</v>
       </c>
       <c r="G19" t="n">
-        <v>1.300306645314575</v>
+        <v>1.311040918878936</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.84602711561196</v>
       </c>
       <c r="E20" t="n">
-        <v>6.126565692121643</v>
+        <v>5.94286244132351</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.976145167787558</v>
+        <v>-4.861820482173225</v>
       </c>
       <c r="G20" t="n">
-        <v>1.506093123487701</v>
+        <v>1.528282934373332</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.00687944523772</v>
       </c>
       <c r="E21" t="n">
-        <v>6.481501922973457</v>
+        <v>6.340477337920676</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.374831739683451</v>
+        <v>-5.228023174118536</v>
       </c>
       <c r="G21" t="n">
-        <v>1.726104850210551</v>
+        <v>1.730054280296459</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.104963076927919</v>
       </c>
       <c r="E22" t="n">
-        <v>6.803719936156097</v>
+        <v>6.693170934904854</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.569332046113853</v>
+        <v>-5.406574645227897</v>
       </c>
       <c r="G22" t="n">
-        <v>1.798428332393714</v>
+        <v>1.804747420531167</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.147156822887565</v>
       </c>
       <c r="E23" t="n">
-        <v>6.953659574851966</v>
+        <v>6.800471329153825</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.783138568450341</v>
+        <v>-5.658284016004375</v>
       </c>
       <c r="G23" t="n">
-        <v>1.934196744319223</v>
+        <v>1.948268687819401</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.138184293443838</v>
       </c>
       <c r="E24" t="n">
-        <v>7.136410874294826</v>
+        <v>7.013171135037404</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.7339137770894</v>
+        <v>-5.612705694750478</v>
       </c>
       <c r="G24" t="n">
-        <v>2.001872893429023</v>
+        <v>2.015776931398746</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.088318114047138</v>
       </c>
       <c r="E25" t="n">
-        <v>7.166184174964636</v>
+        <v>7.032515312193854</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.678946616586915</v>
+        <v>-5.593082648408665</v>
       </c>
       <c r="G25" t="n">
-        <v>1.984285154125937</v>
+        <v>1.997297102712115</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.009031791905676</v>
       </c>
       <c r="E26" t="n">
-        <v>7.146312920447369</v>
+        <v>7.006386291558952</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.54620634440195</v>
+        <v>-5.466431506786836</v>
       </c>
       <c r="G26" t="n">
-        <v>1.915786997940955</v>
+        <v>1.924786734373316</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.91173921267818</v>
       </c>
       <c r="E27" t="n">
-        <v>7.01716582661413</v>
+        <v>6.888858260433165</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.457052887874884</v>
+        <v>-5.396840504605809</v>
       </c>
       <c r="G27" t="n">
-        <v>1.887540907574235</v>
+        <v>1.906727399536867</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.80429131568633</v>
       </c>
       <c r="E28" t="n">
-        <v>6.965878717324781</v>
+        <v>6.832589467057635</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.265180668008116</v>
+        <v>-5.218639445038265</v>
       </c>
       <c r="G28" t="n">
-        <v>1.831632746077159</v>
+        <v>1.842402060795702</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.692535705628381</v>
       </c>
       <c r="E29" t="n">
-        <v>6.782632461579102</v>
+        <v>6.653968643663956</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.137082618728197</v>
+        <v>-5.114160593724976</v>
       </c>
       <c r="G29" t="n">
-        <v>1.77501208111172</v>
+        <v>1.809038501870347</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.580366536539114</v>
       </c>
       <c r="E30" t="n">
-        <v>6.689697480496582</v>
+        <v>6.571832178261795</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.066258605934397</v>
+        <v>-5.073807784588441</v>
       </c>
       <c r="G30" t="n">
-        <v>1.73299627719964</v>
+        <v>1.781063980448537</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.467012558162182</v>
       </c>
       <c r="E31" t="n">
-        <v>6.460747339361189</v>
+        <v>6.364651354161851</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.880028011890902</v>
+        <v>-4.909310006378122</v>
       </c>
       <c r="G31" t="n">
-        <v>1.612437186237127</v>
+        <v>1.652483385274571</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.352720217435435</v>
       </c>
       <c r="E32" t="n">
-        <v>6.202816703669349</v>
+        <v>6.096075507839196</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.682590088701591</v>
+        <v>-4.70562015726354</v>
       </c>
       <c r="G32" t="n">
-        <v>1.484228903326344</v>
+        <v>1.537684184030693</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.235762768135788</v>
       </c>
       <c r="E33" t="n">
-        <v>5.961286788182687</v>
+        <v>5.860927462557895</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.481022419487146</v>
+        <v>-4.512912789888773</v>
       </c>
       <c r="G33" t="n">
-        <v>1.468529006204802</v>
+        <v>1.518166261151426</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.113822769776954</v>
       </c>
       <c r="E34" t="n">
-        <v>5.621028420788778</v>
+        <v>5.509309921016717</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.353308362855135</v>
+        <v>-4.381285074349082</v>
       </c>
       <c r="G34" t="n">
-        <v>1.383942580106098</v>
+        <v>1.44212549652881</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.98718861886868</v>
       </c>
       <c r="E35" t="n">
-        <v>5.320746170123949</v>
+        <v>5.238456399672245</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.239196114238029</v>
+        <v>-4.270801775261929</v>
       </c>
       <c r="G35" t="n">
-        <v>1.352313558312743</v>
+        <v>1.418392414811088</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.855801912446653</v>
       </c>
       <c r="E36" t="n">
-        <v>5.006260571630762</v>
+        <v>4.922233343950875</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.15344748985896</v>
+        <v>-4.167438400690093</v>
       </c>
       <c r="G36" t="n">
-        <v>1.269071836505765</v>
+        <v>1.327056186388113</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.722570645842302</v>
       </c>
       <c r="E37" t="n">
-        <v>4.63633694712577</v>
+        <v>4.546529389053976</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.081515300564162</v>
+        <v>-4.11567969586738</v>
       </c>
       <c r="G37" t="n">
-        <v>1.184862102814515</v>
+        <v>1.222107929613596</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.590528303838694</v>
       </c>
       <c r="E38" t="n">
-        <v>4.317287238300401</v>
+        <v>4.265329966937324</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.993523312293413</v>
+        <v>-4.000597975317911</v>
       </c>
       <c r="G38" t="n">
-        <v>1.150651715996433</v>
+        <v>1.187535450868969</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.46036600786498</v>
       </c>
       <c r="E39" t="n">
-        <v>3.965320745265496</v>
+        <v>3.880554733251609</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.854604116587723</v>
+        <v>-3.859867589955449</v>
       </c>
       <c r="G39" t="n">
-        <v>1.073659000018545</v>
+        <v>1.111026010809171</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.336779534391377</v>
       </c>
       <c r="E40" t="n">
-        <v>3.640372442152855</v>
+        <v>3.560649436244968</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.748162230616206</v>
+        <v>-3.770541117729609</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9846033667135686</v>
+        <v>1.02687905918583</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.219732516138872</v>
       </c>
       <c r="E41" t="n">
-        <v>3.417272713717733</v>
+        <v>3.341970733429117</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.721000225956986</v>
+        <v>-3.746009389706161</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9073288614541348</v>
+        <v>0.9358903222084909</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.110049620264161</v>
       </c>
       <c r="E42" t="n">
-        <v>3.104444269807727</v>
+        <v>3.013677460140205</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.659608853854503</v>
+        <v>-3.658178736749457</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8527551839121496</v>
+        <v>0.8789309260859607</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.007673713972068</v>
       </c>
       <c r="E43" t="n">
-        <v>2.935614528911681</v>
+        <v>2.864361261979155</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.589614878400385</v>
+        <v>-3.590441995643884</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8349367570106998</v>
+        <v>0.8485006037752416</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9095325064252537</v>
       </c>
       <c r="E44" t="n">
-        <v>2.695690666325018</v>
+        <v>2.636386432968489</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.550871772284077</v>
+        <v>-3.579447833519342</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7489881060431773</v>
+        <v>0.7568285642913571</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8152213050908804</v>
       </c>
       <c r="E45" t="n">
-        <v>2.502240134471979</v>
+        <v>2.434968418683361</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.442242734272379</v>
+        <v>-3.458840560969829</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6467482384772958</v>
+        <v>0.6657040428415634</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7222695963704195</v>
       </c>
       <c r="E46" t="n">
-        <v>2.286758936975219</v>
+        <v>2.214895369940693</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.362747495866673</v>
+        <v>-3.387396757761439</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6569043329976566</v>
+        <v>0.6850438398537401</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6297079307220348</v>
       </c>
       <c r="E47" t="n">
-        <v>2.017083674440109</v>
+        <v>1.906268944436321</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.304823737980098</v>
+        <v>-3.343947916648133</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5575977020464106</v>
+        <v>0.577533198679678</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5387430381914634</v>
       </c>
       <c r="E48" t="n">
-        <v>1.822183314832798</v>
+        <v>1.717197096807917</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.215240297290258</v>
+        <v>-3.240075715316615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4499220754380759</v>
+        <v>0.4807772717432494</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4496342687238599</v>
       </c>
       <c r="E49" t="n">
-        <v>1.67540906039802</v>
+        <v>1.538947125629329</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.150247716571548</v>
+        <v>-3.175129126112769</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3835293086001846</v>
+        <v>0.3987722106692714</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3651508103911141</v>
       </c>
       <c r="E50" t="n">
-        <v>1.533105473217603</v>
+        <v>1.406805473161637</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.084076877043475</v>
+        <v>-3.123612059249101</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2975120353723895</v>
+        <v>0.2951014959742992</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2873773944126308</v>
       </c>
       <c r="E51" t="n">
-        <v>1.410208845261545</v>
+        <v>1.274225806266673</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.995029274002999</v>
+        <v>-3.036496099832897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2610838355042175</v>
+        <v>0.2806470198743031</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2166590764135609</v>
       </c>
       <c r="E52" t="n">
-        <v>1.245391316519317</v>
+        <v>1.120863814845714</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.880868843798893</v>
+        <v>-2.913614802381794</v>
       </c>
       <c r="G52" t="n">
-        <v>0.23809537831286</v>
+        <v>0.2303819442485894</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1548559181405687</v>
       </c>
       <c r="E53" t="n">
-        <v>1.069543124450273</v>
+        <v>0.9453572740299429</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.760854350774289</v>
+        <v>-2.818141527693228</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1551179252103368</v>
+        <v>0.1474687332620662</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1011352982246643</v>
       </c>
       <c r="E54" t="n">
-        <v>1.016011921245197</v>
+        <v>0.9357559977841272</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.710697318707303</v>
+        <v>-2.76014914754638</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1280238127873441</v>
+        <v>0.09989890641216986</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05545556804971266</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8575631222755119</v>
+        <v>0.7431946352184516</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.744036786839157</v>
+        <v>-2.791275912796463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09732192153171601</v>
+        <v>0.07445610837999488</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01760700027562154</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7457365789447237</v>
+        <v>0.605853751499034</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.647013671102092</v>
+        <v>-2.694173224438444</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08659932835208252</v>
+        <v>0.06296114976027069</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.01417261400104804</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6628700894971096</v>
+        <v>0.5274287283439641</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.635375627769459</v>
+        <v>-2.682105926967083</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04768612663318388</v>
+        <v>0.02362453409500852</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04073247818565121</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6360256452976623</v>
+        <v>0.5040533584085158</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.659868664518498</v>
+        <v>-2.701794675472987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.002393974805105135</v>
+        <v>-0.03476132901233944</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.0637381390359771</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6078802982492153</v>
+        <v>0.4432700963358959</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.624127417277099</v>
+        <v>-2.673265335776631</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.01306063423716344</v>
+        <v>-0.05693799946515166</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.0842209349690634</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5743196328315879</v>
+        <v>0.4394418502415333</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.624288752591144</v>
+        <v>-2.671362893114177</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.06008440310105991</v>
+        <v>-0.1188980602990441</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1015282672840419</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4389790149967152</v>
+        <v>0.2912878503608458</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.659289755450453</v>
+        <v>-2.725588349186481</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08574328825068939</v>
+        <v>-0.1501693703101266</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1157575908902039</v>
       </c>
       <c r="E62" t="n">
-        <v>0.408437729031087</v>
+        <v>0.2597128503468542</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.673158022241949</v>
+        <v>-2.705107524591259</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1204135902174073</v>
+        <v>-0.1913952882050246</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1267464235713491</v>
       </c>
       <c r="E63" t="n">
-        <v>0.342153005751923</v>
+        <v>0.17723181359524</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.760079065238017</v>
+        <v>-2.82033670999791</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1839621833742085</v>
+        <v>-0.2497212893406454</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1351972393039373</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3010993735317522</v>
+        <v>0.115105307278984</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.762750953244379</v>
+        <v>-2.817921060431501</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1878853325944801</v>
+        <v>-0.261049802478006</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1419581307058772</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2425368446054043</v>
+        <v>0.05574267199881808</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.756145695681109</v>
+        <v>-2.792043168068235</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2279052507662876</v>
+        <v>-0.2957551455989057</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1477719056454754</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1971673102285074</v>
+        <v>0.002158907062468835</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.85439160169431</v>
+        <v>-2.897538212852798</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2348784404484675</v>
+        <v>-0.2990869753423593</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1531883225260932</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1745438650598771</v>
+        <v>-0.04137680691224675</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.851863528424901</v>
+        <v>-2.898573386949252</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2365647959934671</v>
+        <v>-0.3072705448919026</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1584363109330877</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1560100145938821</v>
+        <v>-0.06111519705324145</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.947416375734421</v>
+        <v>-2.992517991286636</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3070544577744481</v>
+        <v>-0.3818118401251553</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.163847223012298</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1092373740016219</v>
+        <v>-0.09241132788186941</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.954833420036237</v>
+        <v>-3.012028613925449</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2726075431656392</v>
+        <v>-0.3420503504654387</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1697049754722923</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02115413272519101</v>
+        <v>-0.2007731770929312</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.063740597209253</v>
+        <v>-3.126926368415464</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3301086171298965</v>
+        <v>-0.4104682040054204</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1764168323350045</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.01691224110098059</v>
+        <v>-0.2383095534621029</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.15326344590332</v>
+        <v>-3.226531579201301</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3981585385509691</v>
+        <v>-0.4869499031514907</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1833598200525883</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.03099732503397681</v>
+        <v>-0.2602847372783698</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.265930246910426</v>
+        <v>-3.349361044945177</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4230844795589624</v>
+        <v>-0.5031038752293046</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.190108886554439</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.06287455500278644</v>
+        <v>-0.2778856170142742</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.205731734098215</v>
+        <v>-3.294031062492101</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4550814334712266</v>
+        <v>-0.5457445797242931</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1965923729566862</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1035222938536846</v>
+        <v>-0.3356991412699859</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.271205400662879</v>
+        <v>-3.3634819000564</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5104917185693026</v>
+        <v>-0.6025652712781869</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2026570675277402</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.06339579217124083</v>
+        <v>-0.2824395070098184</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.275100078945378</v>
+        <v>-3.37602955334967</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5572979402676537</v>
+        <v>-0.6343767990829057</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2079129951359124</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.09749959547868622</v>
+        <v>-0.3415875152206207</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.204939658008897</v>
+        <v>-3.275519112747469</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5753558150560124</v>
+        <v>-0.6561796972244452</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2116090168684373</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.07454179929723784</v>
+        <v>-0.3292252880348967</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.216099535591758</v>
+        <v>-3.277113485262741</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5679884123892872</v>
+        <v>-0.6134426295554568</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2122188160457527</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01576071507737427</v>
+        <v>-0.2075215193691112</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.148492738766276</v>
+        <v>-3.196818140503217</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5917054335780081</v>
+        <v>-0.6458556971736299</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.208735433332694</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07513065059799469</v>
+        <v>-0.1426340621129468</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.062425093879344</v>
+        <v>-3.133571047277189</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5634870841250157</v>
+        <v>-0.6018396273770054</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2015254006258173</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1658989203136067</v>
+        <v>-0.04377566592560974</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.008035382396814</v>
+        <v>-3.057067447409755</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6175789457970011</v>
+        <v>-0.6385671371038136</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1911872495443222</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2533455806224014</v>
+        <v>0.04901039025163807</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.897431629342162</v>
+        <v>-2.939217475679923</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5529134158506549</v>
+        <v>-0.5723992176719224</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1791232458298215</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3350717725110158</v>
+        <v>0.1646272184264252</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.733393766280479</v>
+        <v>-2.781717707969329</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5546289723574725</v>
+        <v>-0.5689111627827415</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1660740939362869</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6232268637327566</v>
+        <v>0.4490927681224398</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.641723916868731</v>
+        <v>-2.693849823786307</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5225823768101175</v>
+        <v>-0.5516183531940189</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1529752152968416</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8803354923494149</v>
+        <v>0.7170232731889132</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.456522656729326</v>
+        <v>-2.524819326277762</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5263785018464802</v>
+        <v>-0.5389757967748404</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1403421945857228</v>
       </c>
       <c r="E85" t="n">
-        <v>1.080635109796906</v>
+        <v>0.9231718432885851</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.233050616031022</v>
+        <v>-2.297758487372004</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5226057375795721</v>
+        <v>-0.5400693727949311</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1292471762591088</v>
       </c>
       <c r="E86" t="n">
-        <v>1.397577969227094</v>
+        <v>1.25585694123495</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.123383483826688</v>
+        <v>-2.194398032896351</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.466428927233769</v>
+        <v>-0.4737379279768579</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.119837669450337</v>
       </c>
       <c r="E87" t="n">
-        <v>1.69150901069647</v>
+        <v>1.559346917555505</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.951461361074097</v>
+        <v>-2.026572075062805</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4348875083258684</v>
+        <v>-0.447223454645956</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1122945118842264</v>
       </c>
       <c r="E88" t="n">
-        <v>1.89723708694596</v>
+        <v>1.75015622241209</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.714867868182797</v>
+        <v>-1.764293416156239</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4417789353149574</v>
+        <v>-0.4453867141475928</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.10712792660229</v>
       </c>
       <c r="E89" t="n">
-        <v>2.096495690104634</v>
+        <v>1.977539731945938</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.572700065474836</v>
+        <v>-1.617082607342278</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.3573808554199801</v>
+        <v>-0.346634901470892</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1058464140715184</v>
       </c>
       <c r="E90" t="n">
-        <v>2.213517084542875</v>
+        <v>2.110142759610357</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.388390894718976</v>
+        <v>-1.424603007469694</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3160352135816276</v>
+        <v>-0.3151781653522641</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1095897708833668</v>
       </c>
       <c r="E91" t="n">
-        <v>2.25949399892559</v>
+        <v>2.181118617405611</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.200342540802299</v>
+        <v>-1.226411699465474</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2939811871684516</v>
+        <v>-0.3002988152578136</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1196418532827131</v>
       </c>
       <c r="E92" t="n">
-        <v>2.164931064221706</v>
+        <v>2.107765801318358</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.052280523951339</v>
+        <v>-1.073318356893242</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.268166076873095</v>
+        <v>-0.2853216419412721</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1360703109381602</v>
       </c>
       <c r="E93" t="n">
-        <v>2.084348089988273</v>
+        <v>2.048337463874101</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8615792626534811</v>
+        <v>-0.857391844728755</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.240339020308466</v>
+        <v>-0.2754268960291839</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.158834198934261</v>
       </c>
       <c r="E94" t="n">
-        <v>1.948087641856128</v>
+        <v>1.92501742197168</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8123040996334033</v>
+        <v>-0.8052695879314052</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1915237724370246</v>
+        <v>-0.2335658572147406</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1875750497658688</v>
       </c>
       <c r="E95" t="n">
-        <v>1.836246498044431</v>
+        <v>1.845025767215065</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6126936248848206</v>
+        <v>-0.6007562716935511</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1709064333453029</v>
+        <v>-0.1951505318948418</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2195799815133434</v>
       </c>
       <c r="E96" t="n">
-        <v>1.680206778424745</v>
+        <v>1.692234654597651</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4756754117934938</v>
+        <v>-0.4368687935852315</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1389751815971296</v>
+        <v>-0.1628060865369414</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.251649246582721</v>
       </c>
       <c r="E97" t="n">
-        <v>1.542766611435146</v>
+        <v>1.547916201051781</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3196765735203538</v>
+        <v>-0.2760182155060019</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1265706130167693</v>
+        <v>-0.1682681264450309</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.279519273278395</v>
       </c>
       <c r="E98" t="n">
-        <v>1.39598067661564</v>
+        <v>1.40121932916582</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1808055594016638</v>
+        <v>-0.1398906317501294</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1423303721100378</v>
+        <v>-0.1591004844822151</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3013000772516897</v>
       </c>
       <c r="E99" t="n">
-        <v>1.265012902813039</v>
+        <v>1.273831593282127</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03363709198233974</v>
+        <v>0.01804277024346457</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.187983155816571</v>
+        <v>-0.2235075859164706</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3191725584290766</v>
       </c>
       <c r="E100" t="n">
-        <v>1.226044219266686</v>
+        <v>1.231355874221411</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0572056401859086</v>
+        <v>0.1054324886767138</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2011980510873856</v>
+        <v>-0.2400032092475571</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3353299092950311</v>
       </c>
       <c r="E101" t="n">
-        <v>1.136461508600892</v>
+        <v>1.125334482100076</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1030730509618054</v>
+        <v>0.1482104376922478</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1655611972844861</v>
+        <v>-0.1826496001404815</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3533721155495823</v>
       </c>
       <c r="E102" t="n">
-        <v>1.110095960175262</v>
+        <v>1.096502912448902</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1259826655562538</v>
+        <v>0.1474585129254298</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.238613243465012</v>
+        <v>-0.2708861464664579</v>
       </c>
     </row>
   </sheetData>
